--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3176.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3176.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.080760496038512</v>
+        <v>1.045860886573792</v>
       </c>
       <c r="B1">
-        <v>1.370189259708662</v>
+        <v>2.249685287475586</v>
       </c>
       <c r="C1">
-        <v>1.994921321108672</v>
+        <v>4.219629764556885</v>
       </c>
       <c r="D1">
-        <v>6.623088908849066</v>
+        <v>0.8181212544441223</v>
       </c>
       <c r="E1">
-        <v>4.562230246110324</v>
+        <v>1.093196034431458</v>
       </c>
     </row>
   </sheetData>
